--- a/data/metadata/mapping-nacionalidad-pais-nombre.xlsx
+++ b/data/metadata/mapping-nacionalidad-pais-nombre.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>Corea del norte (R. popular)</t>
   </si>
@@ -1013,67 +1013,13 @@
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/bangladesh</t>
-  </si>
-  <si>
-    <t>Extranjeros comunitarios (UE-28)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/extranjeros-comunitarios-UE-28</t>
-  </si>
-  <si>
-    <t>Extranjeros no comunitarios</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/no-comunitarios</t>
-  </si>
-  <si>
-    <t>Extranjeros comunitarios (UE-27)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/extranjeros-comunitarios-UE-27</t>
-  </si>
-  <si>
-    <t>Españoles</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/espanoles</t>
-  </si>
-  <si>
-    <t>No consta</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/no-consta</t>
-  </si>
-  <si>
-    <t>Santa Lucia</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/santa-lucia</t>
-  </si>
-  <si>
-    <t>San Cristóbal y Nieves</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/san-cristobal-y-nieves</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/fiji</t>
-  </si>
-  <si>
-    <t>Palestina</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nacionalidad-pais-nombre/palestina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1084,43 +1030,35 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,22 +1068,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="33.14"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2481,78 +2413,6 @@
       </c>
       <c r="B167" s="2" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2724,16 +2584,7 @@
     <hyperlink r:id="rId165" ref="B165"/>
     <hyperlink r:id="rId166" ref="B166"/>
     <hyperlink r:id="rId167" ref="B167"/>
-    <hyperlink r:id="rId168" ref="B168"/>
-    <hyperlink r:id="rId169" ref="B169"/>
-    <hyperlink r:id="rId170" ref="B170"/>
-    <hyperlink r:id="rId171" ref="B171"/>
-    <hyperlink r:id="rId172" ref="B172"/>
-    <hyperlink r:id="rId173" ref="B173"/>
-    <hyperlink r:id="rId174" ref="B174"/>
-    <hyperlink r:id="rId175" ref="B175"/>
-    <hyperlink r:id="rId176" ref="B176"/>
   </hyperlinks>
-  <drawing r:id="rId177"/>
+  <drawing r:id="rId168"/>
 </worksheet>
 </file>